--- a/data/nbo_data.xlsx
+++ b/data/nbo_data.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heidiklem/Desktop/Research-projects/glutaminase-reaction/Manuscript/submission/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{419A04C3-B73C-1548-A60E-8F111A04FC78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7E5BBD-0DE2-0A40-99D5-2669D1650D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40" yWindow="1560" windowWidth="27640" windowHeight="16440" xr2:uid="{2930F5A0-2A6F-1243-9EE7-97F2D29AC04F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="53">
   <si>
     <t>NBO second order perturbation analysis of Fock matrix</t>
   </si>
@@ -153,27 +153,6 @@
     <t>BD*( 1) N 8- H 32</t>
   </si>
   <si>
-    <t>BD*( 2) C206- O215</t>
-  </si>
-  <si>
-    <t>BD*( 1) C207- H225</t>
-  </si>
-  <si>
-    <t>BD*( 1) N203- H233</t>
-  </si>
-  <si>
-    <t>BD*( 1) N 43- H 67</t>
-  </si>
-  <si>
-    <t>BD*( 2) C207- O216</t>
-  </si>
-  <si>
-    <t>BD*( 1) C208- H226</t>
-  </si>
-  <si>
-    <t>BD*( 1) N204- H234</t>
-  </si>
-  <si>
     <t>BD*( 1) C 23- H167</t>
   </si>
   <si>
@@ -187,6 +166,33 @@
   </si>
   <si>
     <t>Energy calculation specifications: b3lyp/6-311+G(2d,2p) scrf=(solvent=diethylether) EmpiricalDispersion=GD3BJ</t>
+  </si>
+  <si>
+    <t>BD*( 2) C232- O233</t>
+  </si>
+  <si>
+    <t>BD*( 1) C 44- H 64</t>
+  </si>
+  <si>
+    <t>BD*( 1) N 41- H 65</t>
+  </si>
+  <si>
+    <t>BD*( 1) N 69- H 84</t>
+  </si>
+  <si>
+    <t>BD*( 1) C212- H140</t>
+  </si>
+  <si>
+    <t>BD*( 1) N117- H141</t>
+  </si>
+  <si>
+    <t>BD*( 1) N 5- H 30</t>
+  </si>
+  <si>
+    <t>BD*( 1) C205- H225</t>
+  </si>
+  <si>
+    <t>BD*( 1) N202- H226</t>
   </si>
 </sst>
 </file>
@@ -557,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF89B7B7-925C-AC46-8F1F-5A539274F75A}">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -580,7 +586,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -1061,7 +1067,7 @@
         <v>19</v>
       </c>
       <c r="F18" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G18">
         <v>3.56</v>
@@ -1226,20 +1232,20 @@
         <v>21</v>
       </c>
       <c r="F23" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G23">
-        <v>0.43</v>
+        <v>0.1</v>
       </c>
       <c r="H23">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="I23">
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I23" t="s">
+        <v>1</v>
       </c>
       <c r="J23">
         <f t="shared" si="0"/>
-        <v>0.77</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -1259,7 +1265,7 @@
         <v>4</v>
       </c>
       <c r="F24" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1267,8 +1273,8 @@
       <c r="H24">
         <v>0</v>
       </c>
-      <c r="I24">
-        <v>0</v>
+      <c r="I24" t="s">
+        <v>1</v>
       </c>
       <c r="J24">
         <f t="shared" si="0"/>
@@ -1292,20 +1298,20 @@
         <v>19</v>
       </c>
       <c r="F25" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>9.16</v>
       </c>
       <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
+        <v>1.66</v>
+      </c>
+      <c r="I25" t="s">
+        <v>1</v>
       </c>
       <c r="J25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10.82</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -1325,20 +1331,20 @@
         <v>20</v>
       </c>
       <c r="F26" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G26">
-        <v>6.07</v>
+        <v>4.49</v>
       </c>
       <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>8.2200000000000006</v>
+        <v>0.48</v>
+      </c>
+      <c r="I26" t="s">
+        <v>1</v>
       </c>
       <c r="J26">
         <f t="shared" si="0"/>
-        <v>14.290000000000001</v>
+        <v>4.9700000000000006</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -1358,20 +1364,20 @@
         <v>21</v>
       </c>
       <c r="F27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G27">
-        <v>0.47</v>
+        <v>0.23</v>
       </c>
       <c r="H27">
         <v>0.11</v>
       </c>
-      <c r="I27">
-        <v>0.06</v>
+      <c r="I27" t="s">
+        <v>1</v>
       </c>
       <c r="J27">
         <f t="shared" si="0"/>
-        <v>0.6399999999999999</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -1391,7 +1397,7 @@
         <v>4</v>
       </c>
       <c r="F28" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1424,20 +1430,20 @@
         <v>19</v>
       </c>
       <c r="F29" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>7.31</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>4.97</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>9.82</v>
       </c>
       <c r="J29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22.1</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -1457,20 +1463,20 @@
         <v>20</v>
       </c>
       <c r="F30" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G30">
-        <v>7.44</v>
+        <v>7.2</v>
       </c>
       <c r="H30">
-        <v>1.69</v>
+        <v>2.34</v>
       </c>
       <c r="I30">
-        <v>10.96</v>
+        <v>9.6300000000000008</v>
       </c>
       <c r="J30">
         <f t="shared" si="0"/>
-        <v>20.090000000000003</v>
+        <v>19.170000000000002</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -1490,20 +1496,20 @@
         <v>21</v>
       </c>
       <c r="F31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G31">
-        <v>0.34</v>
+        <v>0.15</v>
       </c>
       <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31" t="s">
-        <v>1</v>
+        <v>0.09</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
       </c>
       <c r="J31">
         <f t="shared" si="0"/>
-        <v>0.34</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -1523,7 +1529,7 @@
         <v>4</v>
       </c>
       <c r="F32" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -1531,8 +1537,8 @@
       <c r="H32">
         <v>0</v>
       </c>
-      <c r="I32" t="s">
-        <v>1</v>
+      <c r="I32">
+        <v>0</v>
       </c>
       <c r="J32">
         <f t="shared" si="0"/>
@@ -1556,20 +1562,20 @@
         <v>19</v>
       </c>
       <c r="F33" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>7.71</v>
       </c>
       <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33" t="s">
-        <v>1</v>
+        <v>3.36</v>
+      </c>
+      <c r="I33">
+        <v>11.09</v>
       </c>
       <c r="J33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22.16</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
@@ -1592,17 +1598,17 @@
         <v>30</v>
       </c>
       <c r="G34">
-        <v>4.58</v>
+        <v>6.76</v>
       </c>
       <c r="H34">
-        <v>4.57</v>
-      </c>
-      <c r="I34" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>8.3699999999999992</v>
       </c>
       <c r="J34">
         <f t="shared" si="0"/>
-        <v>9.15</v>
+        <v>15.129999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
@@ -1622,7 +1628,7 @@
         <v>4</v>
       </c>
       <c r="F35" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G35">
         <v>5.86</v>
@@ -1655,7 +1661,7 @@
         <v>19</v>
       </c>
       <c r="F36" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G36">
         <v>0.08</v>
@@ -1688,7 +1694,7 @@
         <v>20</v>
       </c>
       <c r="F37" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G37">
         <v>3.72</v>
@@ -1721,7 +1727,7 @@
         <v>4</v>
       </c>
       <c r="F38" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G38">
         <v>5.49</v>
@@ -1754,7 +1760,7 @@
         <v>19</v>
       </c>
       <c r="F39" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -1787,7 +1793,7 @@
         <v>20</v>
       </c>
       <c r="F40" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G40">
         <v>2.88</v>
@@ -1820,7 +1826,7 @@
         <v>4</v>
       </c>
       <c r="F41" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G41">
         <v>4.92</v>
@@ -1853,7 +1859,7 @@
         <v>19</v>
       </c>
       <c r="F42" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -1886,7 +1892,7 @@
         <v>20</v>
       </c>
       <c r="F43" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G43">
         <v>0</v>

--- a/data/nbo_data.xlsx
+++ b/data/nbo_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heidiklem/Desktop/Research-projects/glutaminase-reaction/Manuscript/submission/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heidiklem/Desktop/Graduate School/Research-projects/glutaminase-reaction/Manuscript/submission/IGPS_QM_cluster_models/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7E5BBD-0DE2-0A40-99D5-2669D1650D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC7513A-EB5E-2F47-8B4D-9238615A9B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40" yWindow="1560" windowWidth="27640" windowHeight="16440" xr2:uid="{2930F5A0-2A6F-1243-9EE7-97F2D29AC04F}"/>
   </bookViews>
@@ -69,9 +69,6 @@
     <t>Interaction with LP 3</t>
   </si>
   <si>
-    <t>TS1</t>
-  </si>
-  <si>
     <t>TS2</t>
   </si>
   <si>
@@ -193,6 +190,9 @@
   </si>
   <si>
     <t>BD*( 1) N202- H226</t>
+  </si>
+  <si>
+    <t>TS4</t>
   </si>
 </sst>
 </file>
@@ -564,7 +564,7 @@
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -586,7 +586,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -603,10 +603,10 @@
         <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>8</v>
@@ -638,7 +638,7 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G5">
         <v>4.25</v>
@@ -668,10 +668,10 @@
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G6">
         <v>3.8</v>
@@ -701,10 +701,10 @@
         <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G7">
         <v>2.63</v>
@@ -737,7 +737,7 @@
         <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G8">
         <v>7.19</v>
@@ -767,10 +767,10 @@
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G9">
         <v>3.43</v>
@@ -800,10 +800,10 @@
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G10">
         <v>7.71</v>
@@ -830,13 +830,13 @@
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="E11" t="s">
         <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -863,13 +863,13 @@
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G12">
         <v>3.88</v>
@@ -896,13 +896,13 @@
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G13">
         <v>5.09</v>
@@ -920,10 +920,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
@@ -935,7 +935,7 @@
         <v>4</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G14">
         <v>4.79</v>
@@ -953,10 +953,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
         <v>6</v>
@@ -965,10 +965,10 @@
         <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G15">
         <v>2.74</v>
@@ -986,10 +986,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
         <v>6</v>
@@ -998,10 +998,10 @@
         <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G16">
         <v>2.5099999999999998</v>
@@ -1019,10 +1019,10 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
         <v>6</v>
@@ -1034,7 +1034,7 @@
         <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G17">
         <v>7.02</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
         <v>6</v>
@@ -1064,10 +1064,10 @@
         <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G18">
         <v>3.56</v>
@@ -1085,10 +1085,10 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
         <v>6</v>
@@ -1097,10 +1097,10 @@
         <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G19">
         <v>7.09</v>
@@ -1118,22 +1118,22 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
         <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E20" t="s">
         <v>4</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G20">
         <v>0.06</v>
@@ -1151,22 +1151,22 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
         <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G21">
         <v>3.7</v>
@@ -1184,22 +1184,22 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
         <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G22">
         <v>4.8899999999999997</v>
@@ -1217,22 +1217,22 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D23" t="s">
         <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G23">
         <v>0.1</v>
@@ -1250,13 +1250,13 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
         <v>11</v>
@@ -1265,7 +1265,7 @@
         <v>4</v>
       </c>
       <c r="F24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1283,22 +1283,22 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s">
         <v>11</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G25">
         <v>9.16</v>
@@ -1316,22 +1316,22 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B26" t="s">
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D26" t="s">
         <v>11</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G26">
         <v>4.49</v>
@@ -1349,22 +1349,22 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B27" t="s">
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s">
         <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G27">
         <v>0.23</v>
@@ -1382,13 +1382,13 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B28" t="s">
         <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s">
         <v>12</v>
@@ -1397,7 +1397,7 @@
         <v>4</v>
       </c>
       <c r="F28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1415,22 +1415,22 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B29" t="s">
         <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D29" t="s">
         <v>12</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G29">
         <v>7.31</v>
@@ -1448,22 +1448,22 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B30" t="s">
         <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s">
         <v>12</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G30">
         <v>7.2</v>
@@ -1481,22 +1481,22 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B31" t="s">
         <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="E31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G31">
         <v>0.15</v>
@@ -1514,22 +1514,22 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B32" t="s">
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -1547,22 +1547,22 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B33" t="s">
         <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D33" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G33">
         <v>7.71</v>
@@ -1580,22 +1580,22 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B34" t="s">
         <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G34">
         <v>6.76</v>
@@ -1613,13 +1613,13 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D35" t="s">
         <v>11</v>
@@ -1628,7 +1628,7 @@
         <v>4</v>
       </c>
       <c r="F35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G35">
         <v>5.86</v>
@@ -1646,22 +1646,22 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D36" t="s">
         <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G36">
         <v>0.08</v>
@@ -1679,22 +1679,22 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D37" t="s">
         <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G37">
         <v>3.72</v>
@@ -1712,13 +1712,13 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D38" t="s">
         <v>12</v>
@@ -1727,7 +1727,7 @@
         <v>4</v>
       </c>
       <c r="F38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G38">
         <v>5.49</v>
@@ -1745,22 +1745,22 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D39" t="s">
         <v>12</v>
       </c>
       <c r="E39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -1778,22 +1778,22 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D40" t="s">
         <v>12</v>
       </c>
       <c r="E40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G40">
         <v>2.88</v>
@@ -1811,22 +1811,22 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="E41" t="s">
         <v>4</v>
       </c>
       <c r="F41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G41">
         <v>4.92</v>
@@ -1844,22 +1844,22 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="E42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -1877,22 +1877,22 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="E43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G43">
         <v>0</v>

--- a/data/nbo_data.xlsx
+++ b/data/nbo_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heidiklem/Desktop/Graduate School/Research-projects/glutaminase-reaction/Manuscript/submission/IGPS_QM_cluster_models/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC7513A-EB5E-2F47-8B4D-9238615A9B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F6D6E8-164E-BD48-A95B-6CDF6ADAC8E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="1560" windowWidth="27640" windowHeight="16440" xr2:uid="{2930F5A0-2A6F-1243-9EE7-97F2D29AC04F}"/>
+    <workbookView xWindow="2460" yWindow="4560" windowWidth="27640" windowHeight="16440" xr2:uid="{2930F5A0-2A6F-1243-9EE7-97F2D29AC04F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -563,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF89B7B7-925C-AC46-8F1F-5A539274F75A}">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23:J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1127,7 +1127,7 @@
         <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="E20" t="s">
         <v>4</v>
@@ -1160,7 +1160,7 @@
         <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="E21" t="s">
         <v>18</v>
@@ -1193,7 +1193,7 @@
         <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="E22" t="s">
         <v>19</v>
